--- a/Breast_Cancer_Wisconsin/outputs/train_90_test_10/depth_2/bcw_train_90_test_10_depth_2_report.xlsx
+++ b/Breast_Cancer_Wisconsin/outputs/train_90_test_10/depth_2/bcw_train_90_test_10_depth_2_report.xlsx
@@ -458,39 +458,39 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7241379310344828</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.84</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="E2" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D3" t="n">
-        <v>0.875</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E3" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8596491228070176</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8596491228070176</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8596491228070176</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8596491228070176</v>
+        <v>0.8947368421052632</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8620689655172413</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8574999999999999</v>
+        <v>0.8782051282051282</v>
       </c>
       <c r="E5" t="n">
         <v>57</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8983666061705989</v>
+        <v>0.9097744360902255</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8596491228070176</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8621052631578947</v>
+        <v>0.8900134952766532</v>
       </c>
       <c r="E6" t="n">
         <v>57</v>

--- a/Breast_Cancer_Wisconsin/outputs/train_90_test_10/depth_2/bcw_train_90_test_10_depth_2_report.xlsx
+++ b/Breast_Cancer_Wisconsin/outputs/train_90_test_10/depth_2/bcw_train_90_test_10_depth_2_report.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.86</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.92</v>
       </c>
       <c r="E2" t="n">
         <v>36</v>
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.71</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.83</v>
       </c>
       <c r="E3" t="n">
         <v>21</v>
@@ -499,17 +499,13 @@
           <t>accuracy</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.8947368421052632</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8947368421052632</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.89</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8947368421052632</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +515,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.93</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8571428571428572</v>
+        <v>0.86</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8782051282051282</v>
+        <v>0.88</v>
       </c>
       <c r="E5" t="n">
         <v>57</v>
@@ -538,13 +534,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9097744360902255</v>
+        <v>0.91</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.89</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8900134952766532</v>
+        <v>0.89</v>
       </c>
       <c r="E6" t="n">
         <v>57</v>
